--- a/xlsx/国家政权_intext.xlsx
+++ b/xlsx/国家政权_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
   <si>
     <t>国家政权</t>
   </si>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>統治</t>
+    <t>统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>體制</t>
+    <t>体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>政治權力</t>
+    <t>政治权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%81</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>行政權力</t>
+    <t>行政权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>古希臘</t>
+    <t>古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
+    <t>罗马共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E9%81%94</t>
   </si>
   <si>
-    <t>斯巴達</t>
+    <t>斯巴达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%A4%AA%E5%9F%BA</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E8%AA%AA</t>
   </si>
   <si>
-    <t>演說</t>
+    <t>演说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%8A%9B</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>君主專制</t>
+    <t>君主专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AB%96</t>
   </si>
   <si>
-    <t>君權神授論</t>
+    <t>君权神授论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E6%9C%9D</t>
@@ -389,9 +389,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%93%E5%88%B6</t>
   </si>
   <si>
-    <t>君主专制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%86%E6%9D%83</t>
   </si>
   <si>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>世襲制</t>
+    <t>世袭制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
@@ -437,13 +434,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9_(%E7%A8%B1%E8%AC%82)</t>
   </si>
   <si>
-    <t>蘇丹 (稱謂)</t>
+    <t>苏丹 (称谓)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E7%99%BC</t>
   </si>
   <si>
-    <t>哈里發</t>
+    <t>哈里发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%9B%BD%E5%AE%B6</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E5%88%B6</t>
   </si>
   <si>
-    <t>代議制</t>
+    <t>代议制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%9D%83%E5%88%86%E7%AB%8B</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民主主義</t>
+    <t>民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>執政黨</t>
+    <t>执政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83</t>
@@ -701,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>大眾傳媒</t>
+    <t>大众传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%88%86%E8%AE%BA</t>
@@ -725,19 +722,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>多元主義</t>
+    <t>多元主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E6%A5%AD%E5%AE%B6</t>
   </si>
   <si>
-    <t>實業家</t>
+    <t>实业家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%9D%83</t>
@@ -2904,7 +2901,7 @@
         <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2930,10 +2927,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2959,10 +2956,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2988,10 +2985,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3017,10 +3014,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3046,10 +3043,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3075,10 +3072,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3104,10 +3101,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3133,10 +3130,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3162,10 +3159,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3191,10 +3188,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3220,10 +3217,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3249,10 +3246,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>20</v>
@@ -3278,10 +3275,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3307,10 +3304,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3336,10 +3333,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3365,10 +3362,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3394,10 +3391,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3423,10 +3420,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3452,10 +3449,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3481,10 +3478,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3510,10 +3507,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3539,10 +3536,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3568,10 +3565,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3597,10 +3594,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -3626,10 +3623,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3655,10 +3652,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3684,10 +3681,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -3713,10 +3710,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -3742,10 +3739,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3771,10 +3768,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3800,10 +3797,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3829,10 +3826,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3858,10 +3855,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3887,10 +3884,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3916,10 +3913,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3945,10 +3942,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -3974,10 +3971,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4003,10 +4000,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4032,10 +4029,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4061,10 +4058,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4090,10 +4087,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4119,10 +4116,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4148,10 +4145,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4177,10 +4174,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4206,10 +4203,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -4235,10 +4232,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4264,10 +4261,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4293,10 +4290,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4322,10 +4319,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4351,10 +4348,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -4380,10 +4377,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4409,10 +4406,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4438,10 +4435,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4467,10 +4464,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4496,10 +4493,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4525,10 +4522,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4554,10 +4551,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -4583,10 +4580,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -4612,10 +4609,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>13</v>
@@ -4641,10 +4638,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>5</v>
@@ -4670,10 +4667,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4699,10 +4696,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -4728,10 +4725,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
